--- a/OIM/prac/prac4/ПРИ-120-ОИМ-ПРАКТИКА-#4-Грачев.xlsx
+++ b/OIM/prac/prac4/ПРИ-120-ОИМ-ПРАКТИКА-#4-Грачев.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\VlSU\OIM\prac\prac4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gggchaseggg/Documents/GitHub/VlSU/OIM/prac/prac4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD09A9-7C92-4105-88B0-9063E8951B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E1729-3DE2-124E-9DAB-44A5DF1CDD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Производственно-экономические</t>
   </si>
@@ -109,12 +110,111 @@
   </si>
   <si>
     <t>Кружки качества</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Предыдущий год</t>
+  </si>
+  <si>
+    <t>План отчётного года</t>
+  </si>
+  <si>
+    <t>Фактически в отчётном году</t>
+  </si>
+  <si>
+    <t>Изменение в процентах к предыдущему году</t>
+  </si>
+  <si>
+    <t>Коэффициент интенсивности работы по приему</t>
+  </si>
+  <si>
+    <t>Коэффициент работы по выбытию</t>
+  </si>
+  <si>
+    <t>Коэффициент текучести</t>
+  </si>
+  <si>
+    <t>Коэффициент замещения</t>
+  </si>
+  <si>
+    <t>Коэффициент постоянства кадров</t>
+  </si>
+  <si>
+    <t>План (гр.2/гр.1*100)</t>
+  </si>
+  <si>
+    <t>Факт (гр.3/гр.1*100)</t>
+  </si>
+  <si>
+    <t>Среднесписочная численность работающих чел, в т.ч.:</t>
+  </si>
+  <si>
+    <t>- мужчин</t>
+  </si>
+  <si>
+    <t>- женщин</t>
+  </si>
+  <si>
+    <t>Квалификационный состав чел, в т.ч.</t>
+  </si>
+  <si>
+    <t>- высшее</t>
+  </si>
+  <si>
+    <t>- среднее специальное</t>
+  </si>
+  <si>
+    <t>- среднее профессиональное</t>
+  </si>
+  <si>
+    <t>Распределение работников по категориям работ чел, из них:</t>
+  </si>
+  <si>
+    <t>Разработчики</t>
+  </si>
+  <si>
+    <t>Тестировщики</t>
+  </si>
+  <si>
+    <t>Управляющие</t>
+  </si>
+  <si>
+    <t>Обслуживающие</t>
+  </si>
+  <si>
+    <t>Распределение работников по профессиям чел, из них:</t>
+  </si>
+  <si>
+    <t>Сотрудники, которые занимаются управленческой деятельностью</t>
+  </si>
+  <si>
+    <t>Аналитики</t>
+  </si>
+  <si>
+    <t>Специалисты по работе с персоналом</t>
+  </si>
+  <si>
+    <t>Специалисты по работе с клиентами</t>
+  </si>
+  <si>
+    <t>Обсуживающие</t>
+  </si>
+  <si>
+    <t>Среднегодовая з/п</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,19 +299,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,36 +625,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F6013-6FBD-104F-96FB-7FB60176DE6A}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="10"/>
+    <col min="9" max="9" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(E3-C3)/D3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <f>1/D3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K2" s="11">
+        <f>1/D3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L2" s="11">
+        <f>((E3-C3)-2)/D3</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M2" s="12">
+        <f>((D3-E3)-2)/(D3-E3)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="19">
+        <f>E3-48</f>
+        <v>910</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="19">
+        <v>958</v>
+      </c>
+      <c r="F3" s="20">
+        <f>D3/C3*100</f>
+        <v>109.8901098901099</v>
+      </c>
+      <c r="G3" s="20">
+        <f>(E3/C3)*100</f>
+        <v>105.27472527472528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14">
+        <v>569</v>
+      </c>
+      <c r="D4" s="14">
+        <v>652</v>
+      </c>
+      <c r="E4" s="14">
+        <v>678</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F5" si="0">D4/C4*100</f>
+        <v>114.58699472759226</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G5" si="1">E4/C4*100</f>
+        <v>119.15641476274166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14">
+        <f>C3-C4</f>
+        <v>341</v>
+      </c>
+      <c r="D5" s="14">
+        <f>D3-D4</f>
+        <v>348</v>
+      </c>
+      <c r="E5" s="14">
+        <f>E3-E4</f>
+        <v>280</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>102.05278592375366</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>82.111436950146626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19">
+        <f>E6-48</f>
+        <v>910</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="19">
+        <v>958</v>
+      </c>
+      <c r="F6" s="20">
+        <f>D6/C6*100</f>
+        <v>109.8901098901099</v>
+      </c>
+      <c r="G6" s="20">
+        <f>E6/C6*100</f>
+        <v>105.27472527472528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="14">
+        <v>783</v>
+      </c>
+      <c r="D7" s="14">
+        <v>890</v>
+      </c>
+      <c r="E7" s="14">
+        <v>890</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7:F9" si="2">D7/C7*100</f>
+        <v>113.66538952745849</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7:G9" si="3">E7/C7*100</f>
+        <v>113.66538952745849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14">
+        <v>58</v>
+      </c>
+      <c r="D8" s="14">
+        <v>70</v>
+      </c>
+      <c r="E8" s="14">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="2"/>
+        <v>120.68965517241379</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="3"/>
+        <v>103.44827586206897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14">
+        <f>C6-C7-C8</f>
+        <v>69</v>
+      </c>
+      <c r="D9" s="14">
+        <f>D6-D7-D8</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="14">
+        <f>E6-E7-E8</f>
+        <v>8</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>57.971014492753625</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="3"/>
+        <v>11.594202898550725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="19">
+        <f>E10-48</f>
+        <v>910</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="19">
+        <v>958</v>
+      </c>
+      <c r="F10" s="20">
+        <f>D10/C10*100</f>
+        <v>109.8901098901099</v>
+      </c>
+      <c r="G10" s="20">
+        <f>E10/C10*100</f>
+        <v>105.27472527472528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14">
+        <v>542</v>
+      </c>
+      <c r="D11" s="14">
+        <v>560</v>
+      </c>
+      <c r="E11" s="14">
+        <v>550</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11:F14" si="4">D11/C11*100</f>
+        <v>103.3210332103321</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" ref="G11:G14" si="5">E11/C11*100</f>
+        <v>101.47601476014761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="14">
+        <v>150</v>
+      </c>
+      <c r="D12" s="14">
+        <v>156</v>
+      </c>
+      <c r="E12" s="14">
+        <v>150</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14">
+        <v>120</v>
+      </c>
+      <c r="E13" s="14">
+        <v>120</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C10-C11-C12-C13</f>
+        <v>118</v>
+      </c>
+      <c r="D14" s="14">
+        <f>D10-D11-D12-D13</f>
+        <v>164</v>
+      </c>
+      <c r="E14" s="14">
+        <f>E10-E11-E12-E13</f>
+        <v>138</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="4"/>
+        <v>138.98305084745763</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="5"/>
+        <v>116.94915254237289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19">
+        <f>E15-48</f>
+        <v>910</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="19">
+        <v>958</v>
+      </c>
+      <c r="F15" s="20">
+        <f>D15/C15*100</f>
+        <v>109.8901098901099</v>
+      </c>
+      <c r="G15" s="20">
+        <f>E15/C15*100</f>
+        <v>105.27472527472528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14">
+        <v>542</v>
+      </c>
+      <c r="D16" s="14">
+        <v>560</v>
+      </c>
+      <c r="E16" s="14">
+        <v>550</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F22" si="6">D16/C16*100</f>
+        <v>103.3210332103321</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" ref="G16:G22" si="7">E16/C16*100</f>
+        <v>101.47601476014761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="14">
+        <v>150</v>
+      </c>
+      <c r="D17" s="14">
+        <v>156</v>
+      </c>
+      <c r="E17" s="14">
+        <v>150</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14">
+        <v>100</v>
+      </c>
+      <c r="D18" s="14">
+        <v>120</v>
+      </c>
+      <c r="E18" s="14">
+        <v>120</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="14">
+        <v>70</v>
+      </c>
+      <c r="D19" s="14">
+        <v>80</v>
+      </c>
+      <c r="E19" s="14">
+        <v>75</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="6"/>
+        <v>114.28571428571428</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="7"/>
+        <v>107.14285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="6"/>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="7"/>
+        <v>119.04761904761905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14">
+        <v>30</v>
+      </c>
+      <c r="E21" s="14">
+        <v>23</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="7"/>
+        <v>114.99999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14">
+        <f>C15-C16-C17-C18-C19-C20-C21</f>
+        <v>7</v>
+      </c>
+      <c r="D22" s="14">
+        <f>D15-D16-D17-D18-D19-D20-D21</f>
+        <v>18</v>
+      </c>
+      <c r="E22" s="14">
+        <f>E15-E16-E17-E18-E19-E20-E21</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="6"/>
+        <v>257.14285714285717</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="7"/>
+        <v>214.28571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>5</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="19">
+        <v>843000</v>
+      </c>
+      <c r="D23" s="19">
+        <v>950000</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1035000</v>
+      </c>
+      <c r="F23" s="20">
+        <f>D23/C23*100</f>
+        <v>112.69276393831554</v>
+      </c>
+      <c r="G23" s="20">
+        <f>E23/C23*100</f>
+        <v>122.77580071174377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="15" width="8.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="15" width="8.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -535,8 +1348,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -550,8 +1363,8 @@
         <v>0.19166666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -565,8 +1378,8 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -580,8 +1393,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
@@ -595,8 +1408,8 @@
         <v>0.25833333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
@@ -610,29 +1423,29 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7">
         <f>AVERAGE(D2:D7)</f>
         <v>0.24583333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -646,8 +1459,8 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -661,8 +1474,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -676,8 +1489,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
@@ -691,29 +1504,29 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7">
         <f>AVERAGE(D10:D13)</f>
         <v>0.23541666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -727,8 +1540,8 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -742,8 +1555,8 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -757,8 +1570,8 @@
         <v>0.10833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -772,8 +1585,8 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -787,29 +1600,29 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7">
         <f>AVERAGE(D16:D20)</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -823,8 +1636,8 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -838,8 +1651,8 @@
         <v>0.30833333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -853,8 +1666,8 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -868,13 +1681,13 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7">
         <f>AVERAGE(D23:D26)</f>
         <v>0.33124999999999999</v>
       </c>
